--- a/gameset/rasklad.xlsx
+++ b/gameset/rasklad.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsor2\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0147BF87-E009-415E-8EA8-587A65121DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D84E9D3-64AD-4BCA-AD53-D0A5992731F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="2240" windowWidth="21600" windowHeight="11320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4760" yWindow="1600" windowWidth="21600" windowHeight="11320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Задание с3" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Задание с3'!$A$1:$H$19</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>Крестьянин</t>
   </si>
@@ -139,18 +143,85 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>копейщик</t>
+  </si>
+  <si>
+    <t>арбалетчик</t>
+  </si>
+  <si>
+    <t>монах</t>
+  </si>
+  <si>
+    <t>атака</t>
+  </si>
+  <si>
+    <t>защита</t>
+  </si>
+  <si>
+    <t>выстрелы</t>
+  </si>
+  <si>
+    <t>скорость</t>
+  </si>
+  <si>
+    <t>доставка</t>
+  </si>
+  <si>
+    <t>магия</t>
+  </si>
+  <si>
+    <t>имя</t>
+  </si>
+  <si>
+    <t>Написать программу с семью классами, описывающими данных в таблице персонажей. Для каждого создать по два конструктора</t>
+  </si>
+  <si>
+    <t>и геттеры приватных полей. А также метод возвращающий строку с  кратким описанием персонажа. В основной программе создать списки с</t>
+  </si>
+  <si>
+    <t>пятью экземплярами каждого персонажа и вывести информацию обо все в консоль.</t>
+  </si>
+  <si>
+    <t>урон min</t>
+  </si>
+  <si>
+    <t>урон max</t>
+  </si>
+  <si>
+    <t>здоровье max</t>
+  </si>
+  <si>
+    <t>здоровье nomin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,8 +239,38 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +304,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,62 +351,96 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{1B49E2BA-71DE-4429-80C4-54566C309BC8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -579,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -626,10 +767,10 @@
       <c r="K1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>36</v>
       </c>
     </row>
@@ -660,10 +801,10 @@
       <c r="J2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="18">
+      <c r="L2" s="17">
         <v>1</v>
       </c>
       <c r="M2" s="15" t="s">
@@ -674,7 +815,7 @@
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -697,10 +838,10 @@
       <c r="J3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="17">
         <v>4</v>
       </c>
       <c r="M3" s="15" t="s">
@@ -711,7 +852,7 @@
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
@@ -732,10 +873,10 @@
       <c r="J4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="17">
         <v>6</v>
       </c>
       <c r="M4" s="15" t="s">
@@ -746,7 +887,7 @@
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -769,10 +910,10 @@
       <c r="J5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="17">
         <v>3</v>
       </c>
       <c r="M5" s="15" t="s">
@@ -783,7 +924,7 @@
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
@@ -804,10 +945,10 @@
       <c r="J6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="17">
         <v>6</v>
       </c>
       <c r="M6" s="15" t="s">
@@ -818,7 +959,7 @@
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -841,10 +982,10 @@
       <c r="J7" s="11">
         <v>50</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="17">
         <v>2</v>
       </c>
       <c r="M7" s="15">
@@ -855,7 +996,7 @@
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
@@ -876,10 +1017,10 @@
       <c r="J8" s="11">
         <v>20</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="17">
         <v>1</v>
       </c>
       <c r="M8" s="15">
@@ -898,4 +1039,418 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B63374-79FB-4945-A81A-7630B2793DC1}">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.90625" customWidth="1"/>
+    <col min="2" max="9" width="17.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="22" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="24"/>
+      <c r="B1" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A2" s="24"/>
+      <c r="B2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="28">
+        <v>1</v>
+      </c>
+      <c r="C3" s="28">
+        <v>8</v>
+      </c>
+      <c r="D3" s="28">
+        <v>4</v>
+      </c>
+      <c r="E3" s="28">
+        <v>12</v>
+      </c>
+      <c r="F3" s="28">
+        <v>6</v>
+      </c>
+      <c r="G3" s="28">
+        <v>17</v>
+      </c>
+      <c r="H3" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="28">
+        <v>1</v>
+      </c>
+      <c r="C4" s="28">
+        <v>3</v>
+      </c>
+      <c r="D4" s="28">
+        <v>5</v>
+      </c>
+      <c r="E4" s="28">
+        <v>10</v>
+      </c>
+      <c r="F4" s="28">
+        <v>3</v>
+      </c>
+      <c r="G4" s="28">
+        <v>12</v>
+      </c>
+      <c r="H4" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="28">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0</v>
+      </c>
+      <c r="E5" s="29">
+        <v>32</v>
+      </c>
+      <c r="F5" s="29">
+        <v>16</v>
+      </c>
+      <c r="G5" s="28">
+        <v>0</v>
+      </c>
+      <c r="H5" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="28">
+        <v>0</v>
+      </c>
+      <c r="C6" s="28">
+        <v>2</v>
+      </c>
+      <c r="D6" s="28">
+        <v>1</v>
+      </c>
+      <c r="E6" s="28">
+        <v>8</v>
+      </c>
+      <c r="F6" s="28">
+        <v>2</v>
+      </c>
+      <c r="G6" s="28">
+        <v>2</v>
+      </c>
+      <c r="H6" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="28">
+        <v>1</v>
+      </c>
+      <c r="C7" s="28">
+        <v>4</v>
+      </c>
+      <c r="D7" s="28">
+        <v>3</v>
+      </c>
+      <c r="E7" s="28">
+        <v>10</v>
+      </c>
+      <c r="F7" s="28">
+        <v>3</v>
+      </c>
+      <c r="G7" s="28">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="28">
+        <v>10</v>
+      </c>
+      <c r="C8" s="28">
+        <v>10</v>
+      </c>
+      <c r="D8" s="28">
+        <v>10</v>
+      </c>
+      <c r="E8" s="28">
+        <v>15</v>
+      </c>
+      <c r="F8" s="28">
+        <v>10</v>
+      </c>
+      <c r="G8" s="28">
+        <v>30</v>
+      </c>
+      <c r="H8" s="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="28">
+        <v>10</v>
+      </c>
+      <c r="C9" s="28">
+        <v>10</v>
+      </c>
+      <c r="D9" s="28">
+        <v>10</v>
+      </c>
+      <c r="E9" s="28">
+        <v>15</v>
+      </c>
+      <c r="F9" s="28">
+        <v>10</v>
+      </c>
+      <c r="G9" s="28">
+        <v>30</v>
+      </c>
+      <c r="H9" s="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="28">
+        <v>3</v>
+      </c>
+      <c r="C10" s="28">
+        <v>6</v>
+      </c>
+      <c r="D10" s="28">
+        <v>4</v>
+      </c>
+      <c r="E10" s="28">
+        <v>9</v>
+      </c>
+      <c r="F10" s="28">
+        <v>4</v>
+      </c>
+      <c r="G10" s="28">
+        <v>9</v>
+      </c>
+      <c r="H10" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="29">
+        <v>1</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0</v>
+      </c>
+      <c r="F11" s="28">
+        <v>0</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0</v>
+      </c>
+      <c r="H11" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="28">
+        <v>0</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0</v>
+      </c>
+      <c r="D12" s="28">
+        <v>0</v>
+      </c>
+      <c r="E12" s="28">
+        <v>0</v>
+      </c>
+      <c r="F12" s="28">
+        <v>0</v>
+      </c>
+      <c r="G12" s="29">
+        <v>3</v>
+      </c>
+      <c r="H12" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>